--- a/natmiOut/OldD2/LR-pairs_lrc2p/Col4a5-Cd93.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Col4a5-Cd93.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Neutro</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -95,9 +98,6 @@
   </si>
   <si>
     <t>M2</t>
-  </si>
-  <si>
-    <t>Neutro</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.20930372906983</v>
+        <v>2.393812666666667</v>
       </c>
       <c r="H2">
-        <v>2.20930372906983</v>
+        <v>7.181438</v>
       </c>
       <c r="I2">
-        <v>0.4568114505541815</v>
+        <v>0.4532272278726139</v>
       </c>
       <c r="J2">
-        <v>0.4568114505541815</v>
+        <v>0.5497499903927843</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>234.538651801622</v>
+        <v>235.101616</v>
       </c>
       <c r="N2">
-        <v>234.538651801622</v>
+        <v>470.203232</v>
       </c>
       <c r="O2">
-        <v>0.4253153856435704</v>
+        <v>0.4180755282411119</v>
       </c>
       <c r="P2">
-        <v>0.4253153856435704</v>
+        <v>0.3241848074150884</v>
       </c>
       <c r="Q2">
-        <v>518.1671180363339</v>
+        <v>562.7892263346026</v>
       </c>
       <c r="R2">
-        <v>518.1671180363339</v>
+        <v>3376.735358007616</v>
       </c>
       <c r="S2">
-        <v>0.1942889382588505</v>
+        <v>0.1894832127060979</v>
       </c>
       <c r="T2">
-        <v>0.1942889382588505</v>
+        <v>0.1782205947619314</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.20930372906983</v>
+        <v>2.393812666666667</v>
       </c>
       <c r="H3">
-        <v>2.20930372906983</v>
+        <v>7.181438</v>
       </c>
       <c r="I3">
-        <v>0.4568114505541815</v>
+        <v>0.4532272278726139</v>
       </c>
       <c r="J3">
-        <v>0.4568114505541815</v>
+        <v>0.5497499903927843</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>94.69438057492491</v>
+        <v>0.06134800000000001</v>
       </c>
       <c r="N3">
-        <v>94.69438057492491</v>
+        <v>0.184044</v>
       </c>
       <c r="O3">
-        <v>0.1717199987427602</v>
+        <v>0.0001090936674230931</v>
       </c>
       <c r="P3">
-        <v>0.1717199987427602</v>
+        <v>0.0001268903840624867</v>
       </c>
       <c r="Q3">
-        <v>209.2086481261393</v>
+        <v>0.1468556194746667</v>
       </c>
       <c r="R3">
-        <v>209.2086481261393</v>
+        <v>1.321700575272</v>
       </c>
       <c r="S3">
-        <v>0.07844366171484252</v>
+        <v>4.944422046462536E-05</v>
       </c>
       <c r="T3">
-        <v>0.07844366171484252</v>
+        <v>6.975798741928877E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
         <v>26</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.20930372906983</v>
+        <v>2.393812666666667</v>
       </c>
       <c r="H4">
-        <v>2.20930372906983</v>
+        <v>7.181438</v>
       </c>
       <c r="I4">
-        <v>0.4568114505541815</v>
+        <v>0.4532272278726139</v>
       </c>
       <c r="J4">
-        <v>0.4568114505541815</v>
+        <v>0.5497499903927843</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>66.6246872012414</v>
+        <v>97.11560033333332</v>
       </c>
       <c r="N4">
-        <v>66.6246872012414</v>
+        <v>291.346801</v>
       </c>
       <c r="O4">
-        <v>0.1208180583997979</v>
+        <v>0.1726983276448897</v>
       </c>
       <c r="P4">
-        <v>0.1208180583997979</v>
+        <v>0.2008710279838891</v>
       </c>
       <c r="Q4">
-        <v>147.1941698818136</v>
+        <v>232.4765542088709</v>
       </c>
       <c r="R4">
-        <v>147.1941698818136</v>
+        <v>2092.288987879838</v>
       </c>
       <c r="S4">
-        <v>0.0551910725107515</v>
+        <v>0.07827158429672974</v>
       </c>
       <c r="T4">
-        <v>0.0551910725107515</v>
+        <v>0.1104288457043317</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
         <v>27</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.20930372906983</v>
+        <v>2.393812666666667</v>
       </c>
       <c r="H5">
-        <v>2.20930372906983</v>
+        <v>7.181438</v>
       </c>
       <c r="I5">
-        <v>0.4568114505541815</v>
+        <v>0.4532272278726139</v>
       </c>
       <c r="J5">
-        <v>0.4568114505541815</v>
+        <v>0.5497499903927843</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>154.092684022355</v>
+        <v>68.91226833333333</v>
       </c>
       <c r="N5">
-        <v>154.092684022355</v>
+        <v>206.736805</v>
       </c>
       <c r="O5">
-        <v>0.2794336405807186</v>
+        <v>0.1225450231943603</v>
       </c>
       <c r="P5">
-        <v>0.2794336405807186</v>
+        <v>0.1425360923817208</v>
       </c>
       <c r="Q5">
-        <v>340.4375414329679</v>
+        <v>164.9630608250656</v>
       </c>
       <c r="R5">
-        <v>340.4375414329679</v>
+        <v>1484.66754742559</v>
       </c>
       <c r="S5">
-        <v>0.1276484866873139</v>
+        <v>0.05554074115196508</v>
       </c>
       <c r="T5">
-        <v>0.1276484866873139</v>
+        <v>0.07835921541747601</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,123 +776,123 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.20930372906983</v>
+        <v>2.393812666666667</v>
       </c>
       <c r="H6">
-        <v>2.20930372906983</v>
+        <v>7.181438</v>
       </c>
       <c r="I6">
-        <v>0.4568114505541815</v>
+        <v>0.4532272278726139</v>
       </c>
       <c r="J6">
-        <v>0.4568114505541815</v>
+        <v>0.5497499903927843</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.49602819711562</v>
+        <v>159.6431223333333</v>
       </c>
       <c r="N6">
-        <v>1.49602819711562</v>
+        <v>478.929367</v>
       </c>
       <c r="O6">
-        <v>0.002712916633152936</v>
+        <v>0.2838895105662259</v>
       </c>
       <c r="P6">
-        <v>0.002712916633152936</v>
+        <v>0.3302011003750931</v>
       </c>
       <c r="Q6">
-        <v>3.305180674681154</v>
+        <v>382.1557283877496</v>
       </c>
       <c r="R6">
-        <v>3.305180674681154</v>
+        <v>3439.401555489746</v>
       </c>
       <c r="S6">
-        <v>0.001239291382423159</v>
+        <v>0.1286664558960437</v>
       </c>
       <c r="T6">
-        <v>0.001239291382423159</v>
+        <v>0.1815280517588942</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.62705430527806</v>
+        <v>2.393812666666667</v>
       </c>
       <c r="H7">
-        <v>2.62705430527806</v>
+        <v>7.181438</v>
       </c>
       <c r="I7">
-        <v>0.5431885494458184</v>
+        <v>0.4532272278726139</v>
       </c>
       <c r="J7">
-        <v>0.5431885494458184</v>
+        <v>0.5497499903927843</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>234.538651801622</v>
+        <v>1.508493</v>
       </c>
       <c r="N7">
-        <v>234.538651801622</v>
+        <v>3.016986</v>
       </c>
       <c r="O7">
-        <v>0.4253153856435704</v>
+        <v>0.002682516685989175</v>
       </c>
       <c r="P7">
-        <v>0.4253153856435704</v>
+        <v>0.00208008146014619</v>
       </c>
       <c r="Q7">
-        <v>616.1457749695629</v>
+        <v>3.611049650978</v>
       </c>
       <c r="R7">
-        <v>616.1457749695629</v>
+        <v>21.666297905868</v>
       </c>
       <c r="S7">
-        <v>0.2310264473847198</v>
+        <v>0.001215789601312905</v>
       </c>
       <c r="T7">
-        <v>0.2310264473847198</v>
+        <v>0.001143524762731577</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
         <v>25</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>2.62705430527806</v>
+        <v>0.1058746666666667</v>
       </c>
       <c r="H8">
-        <v>2.62705430527806</v>
+        <v>0.317624</v>
       </c>
       <c r="I8">
-        <v>0.5431885494458184</v>
+        <v>0.02004554589565643</v>
       </c>
       <c r="J8">
-        <v>0.5431885494458184</v>
+        <v>0.02431459979860827</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>94.69438057492491</v>
+        <v>235.101616</v>
       </c>
       <c r="N8">
-        <v>94.69438057492491</v>
+        <v>470.203232</v>
       </c>
       <c r="O8">
-        <v>0.1717199987427602</v>
+        <v>0.4180755282411119</v>
       </c>
       <c r="P8">
-        <v>0.1717199987427602</v>
+        <v>0.3241848074150884</v>
       </c>
       <c r="Q8">
-        <v>248.7672801749956</v>
+        <v>24.89130522679467</v>
       </c>
       <c r="R8">
-        <v>248.7672801749956</v>
+        <v>149.347831360768</v>
       </c>
       <c r="S8">
-        <v>0.09327633702791767</v>
+        <v>0.008380552189208013</v>
       </c>
       <c r="T8">
-        <v>0.09327633702791767</v>
+        <v>0.007882423853086767</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>2.62705430527806</v>
+        <v>0.1058746666666667</v>
       </c>
       <c r="H9">
-        <v>2.62705430527806</v>
+        <v>0.317624</v>
       </c>
       <c r="I9">
-        <v>0.5431885494458184</v>
+        <v>0.02004554589565643</v>
       </c>
       <c r="J9">
-        <v>0.5431885494458184</v>
+        <v>0.02431459979860827</v>
       </c>
       <c r="K9">
         <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>66.6246872012414</v>
+        <v>0.06134800000000001</v>
       </c>
       <c r="N9">
-        <v>66.6246872012414</v>
+        <v>0.184044</v>
       </c>
       <c r="O9">
-        <v>0.1208180583997979</v>
+        <v>0.0001090936674230931</v>
       </c>
       <c r="P9">
-        <v>0.1208180583997979</v>
+        <v>0.0001268903840624867</v>
       </c>
       <c r="Q9">
-        <v>175.0266713498253</v>
+        <v>0.006495199050666668</v>
       </c>
       <c r="R9">
-        <v>175.0266713498253</v>
+        <v>0.05845679145600001</v>
       </c>
       <c r="S9">
-        <v>0.0656269858890464</v>
+        <v>2.18684211725509E-06</v>
       </c>
       <c r="T9">
-        <v>0.0656269858890464</v>
+        <v>3.085288906771065E-06</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>2.62705430527806</v>
+        <v>0.1058746666666667</v>
       </c>
       <c r="H10">
-        <v>2.62705430527806</v>
+        <v>0.317624</v>
       </c>
       <c r="I10">
-        <v>0.5431885494458184</v>
+        <v>0.02004554589565643</v>
       </c>
       <c r="J10">
-        <v>0.5431885494458184</v>
+        <v>0.02431459979860827</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>154.092684022355</v>
+        <v>97.11560033333332</v>
       </c>
       <c r="N10">
-        <v>154.092684022355</v>
+        <v>291.346801</v>
       </c>
       <c r="O10">
-        <v>0.2794336405807186</v>
+        <v>0.1726983276448897</v>
       </c>
       <c r="P10">
-        <v>0.2794336405807186</v>
+        <v>0.2008710279838891</v>
       </c>
       <c r="Q10">
-        <v>404.8098489727794</v>
+        <v>10.28208181342489</v>
       </c>
       <c r="R10">
-        <v>404.8098489727794</v>
+        <v>92.538736320824</v>
       </c>
       <c r="S10">
-        <v>0.1517851538934047</v>
+        <v>0.003461832252908747</v>
       </c>
       <c r="T10">
-        <v>0.1517851538934047</v>
+        <v>0.004884098656563305</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,557 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G11">
+        <v>0.1058746666666667</v>
+      </c>
+      <c r="H11">
+        <v>0.317624</v>
+      </c>
+      <c r="I11">
+        <v>0.02004554589565643</v>
+      </c>
+      <c r="J11">
+        <v>0.02431459979860827</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>68.91226833333333</v>
+      </c>
+      <c r="N11">
+        <v>206.736805</v>
+      </c>
+      <c r="O11">
+        <v>0.1225450231943603</v>
+      </c>
+      <c r="P11">
+        <v>0.1425360923817208</v>
+      </c>
+      <c r="Q11">
+        <v>7.296063439035556</v>
+      </c>
+      <c r="R11">
+        <v>65.66457095132</v>
+      </c>
+      <c r="S11">
+        <v>0.00245648188672683</v>
+      </c>
+      <c r="T11">
+        <v>0.003465708043118997</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G12">
+        <v>0.1058746666666667</v>
+      </c>
+      <c r="H12">
+        <v>0.317624</v>
+      </c>
+      <c r="I12">
+        <v>0.02004554589565643</v>
+      </c>
+      <c r="J12">
+        <v>0.02431459979860827</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>159.6431223333333</v>
+      </c>
+      <c r="N12">
+        <v>478.929367</v>
+      </c>
+      <c r="O12">
+        <v>0.2838895105662259</v>
+      </c>
+      <c r="P12">
+        <v>0.3302011003750931</v>
+      </c>
+      <c r="Q12">
+        <v>16.90216236266756</v>
+      </c>
+      <c r="R12">
+        <v>152.119461264008</v>
+      </c>
+      <c r="S12">
+        <v>0.005690720213350722</v>
+      </c>
+      <c r="T12">
+        <v>0.008028707608680468</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
         <v>22</v>
       </c>
-      <c r="C11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.1058746666666667</v>
+      </c>
+      <c r="H13">
+        <v>0.317624</v>
+      </c>
+      <c r="I13">
+        <v>0.02004554589565643</v>
+      </c>
+      <c r="J13">
+        <v>0.02431459979860827</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>1.508493</v>
+      </c>
+      <c r="N13">
+        <v>3.016986</v>
+      </c>
+      <c r="O13">
+        <v>0.002682516685989175</v>
+      </c>
+      <c r="P13">
+        <v>0.00208008146014619</v>
+      </c>
+      <c r="Q13">
+        <v>0.159711193544</v>
+      </c>
+      <c r="R13">
+        <v>0.9582671612640001</v>
+      </c>
+      <c r="S13">
+        <v>5.37725113448602E-05</v>
+      </c>
+      <c r="T13">
+        <v>5.057634825195935E-05</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>2.782018</v>
+      </c>
+      <c r="H14">
+        <v>5.564036</v>
+      </c>
+      <c r="I14">
+        <v>0.5267272262317297</v>
+      </c>
+      <c r="J14">
+        <v>0.4259354098086074</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>235.101616</v>
+      </c>
+      <c r="N14">
+        <v>470.203232</v>
+      </c>
+      <c r="O14">
+        <v>0.4180755282411119</v>
+      </c>
+      <c r="P14">
+        <v>0.3241848074150884</v>
+      </c>
+      <c r="Q14">
+        <v>654.0569275410879</v>
+      </c>
+      <c r="R14">
+        <v>2616.227710164352</v>
+      </c>
+      <c r="S14">
+        <v>0.2202117633458061</v>
+      </c>
+      <c r="T14">
+        <v>0.1380817888000701</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>2.782018</v>
+      </c>
+      <c r="H15">
+        <v>5.564036</v>
+      </c>
+      <c r="I15">
+        <v>0.5267272262317297</v>
+      </c>
+      <c r="J15">
+        <v>0.4259354098086074</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M15">
+        <v>0.06134800000000001</v>
+      </c>
+      <c r="N15">
+        <v>0.184044</v>
+      </c>
+      <c r="O15">
+        <v>0.0001090936674230931</v>
+      </c>
+      <c r="P15">
+        <v>0.0001268903840624867</v>
+      </c>
+      <c r="Q15">
+        <v>0.170671240264</v>
+      </c>
+      <c r="R15">
+        <v>1.024027441584</v>
+      </c>
+      <c r="S15">
+        <v>5.746260484121262E-05</v>
+      </c>
+      <c r="T15">
+        <v>5.404710773642686E-05</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>2.782018</v>
+      </c>
+      <c r="H16">
+        <v>5.564036</v>
+      </c>
+      <c r="I16">
+        <v>0.5267272262317297</v>
+      </c>
+      <c r="J16">
+        <v>0.4259354098086074</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>97.11560033333332</v>
+      </c>
+      <c r="N16">
+        <v>291.346801</v>
+      </c>
+      <c r="O16">
+        <v>0.1726983276448897</v>
+      </c>
+      <c r="P16">
+        <v>0.2008710279838891</v>
+      </c>
+      <c r="Q16">
+        <v>270.1773482081393</v>
+      </c>
+      <c r="R16">
+        <v>1621.064089248836</v>
+      </c>
+      <c r="S16">
+        <v>0.09096491109525118</v>
+      </c>
+      <c r="T16">
+        <v>0.08555808362299402</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>2.782018</v>
+      </c>
+      <c r="H17">
+        <v>5.564036</v>
+      </c>
+      <c r="I17">
+        <v>0.5267272262317297</v>
+      </c>
+      <c r="J17">
+        <v>0.4259354098086074</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>68.91226833333333</v>
+      </c>
+      <c r="N17">
+        <v>206.736805</v>
+      </c>
+      <c r="O17">
+        <v>0.1225450231943603</v>
+      </c>
+      <c r="P17">
+        <v>0.1425360923817208</v>
+      </c>
+      <c r="Q17">
+        <v>191.7151709241633</v>
+      </c>
+      <c r="R17">
+        <v>1150.29102554498</v>
+      </c>
+      <c r="S17">
+        <v>0.06454780015566837</v>
+      </c>
+      <c r="T17">
+        <v>0.06071116892112575</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" t="s">
         <v>21</v>
       </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>2.62705430527806</v>
-      </c>
-      <c r="H11">
-        <v>2.62705430527806</v>
-      </c>
-      <c r="I11">
-        <v>0.5431885494458184</v>
-      </c>
-      <c r="J11">
-        <v>0.5431885494458184</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>1.49602819711562</v>
-      </c>
-      <c r="N11">
-        <v>1.49602819711562</v>
-      </c>
-      <c r="O11">
-        <v>0.002712916633152936</v>
-      </c>
-      <c r="P11">
-        <v>0.002712916633152936</v>
-      </c>
-      <c r="Q11">
-        <v>3.930147316049963</v>
-      </c>
-      <c r="R11">
-        <v>3.930147316049963</v>
-      </c>
-      <c r="S11">
-        <v>0.001473625250729777</v>
-      </c>
-      <c r="T11">
-        <v>0.001473625250729777</v>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>2.782018</v>
+      </c>
+      <c r="H18">
+        <v>5.564036</v>
+      </c>
+      <c r="I18">
+        <v>0.5267272262317297</v>
+      </c>
+      <c r="J18">
+        <v>0.4259354098086074</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>159.6431223333333</v>
+      </c>
+      <c r="N18">
+        <v>478.929367</v>
+      </c>
+      <c r="O18">
+        <v>0.2838895105662259</v>
+      </c>
+      <c r="P18">
+        <v>0.3302011003750931</v>
+      </c>
+      <c r="Q18">
+        <v>444.1300399075353</v>
+      </c>
+      <c r="R18">
+        <v>2664.780239445212</v>
+      </c>
+      <c r="S18">
+        <v>0.1495323344568315</v>
+      </c>
+      <c r="T18">
+        <v>0.1406443410075184</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>2.782018</v>
+      </c>
+      <c r="H19">
+        <v>5.564036</v>
+      </c>
+      <c r="I19">
+        <v>0.5267272262317297</v>
+      </c>
+      <c r="J19">
+        <v>0.4259354098086074</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>1.508493</v>
+      </c>
+      <c r="N19">
+        <v>3.016986</v>
+      </c>
+      <c r="O19">
+        <v>0.002682516685989175</v>
+      </c>
+      <c r="P19">
+        <v>0.00208008146014619</v>
+      </c>
+      <c r="Q19">
+        <v>4.196654678874</v>
+      </c>
+      <c r="R19">
+        <v>16.786618715496</v>
+      </c>
+      <c r="S19">
+        <v>0.00141295457333141</v>
+      </c>
+      <c r="T19">
+        <v>0.0008859803491626541</v>
       </c>
     </row>
   </sheetData>
